--- a/MedicalLink/Templates/BC_TongHopToanVien_01.xlsx
+++ b/MedicalLink/Templates/BC_TongHopToanVien_01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>STT</t>
   </si>
@@ -80,9 +80,6 @@
     <t>DV KTC</t>
   </si>
   <si>
-    <t>Ngày giường</t>
-  </si>
-  <si>
     <t>Máu</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>&amp;=[DATA1].MONEY_DVKTC</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].MONEY_GIUONG</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].MONEY_MAU</t>
   </si>
   <si>
@@ -159,6 +153,18 @@
   </si>
   <si>
     <t>&amp;=[DATA1].MONEY_KHAC</t>
+  </si>
+  <si>
+    <t>Giường thường</t>
+  </si>
+  <si>
+    <t>Giường yêu cầu</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_GIUONGTHUONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_GIUONGYEUCAU</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -448,23 +454,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -478,26 +475,38 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -786,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,132 +806,138 @@
     <col min="1" max="1" width="7.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16" width="17" style="1" customWidth="1"/>
-    <col min="17" max="19" width="12" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="17" width="17" style="1" customWidth="1"/>
+    <col min="18" max="20" width="12" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="12" t="s">
+    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:19" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="21" t="s">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
     </row>
-    <row r="8" spans="1:19" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="24" t="s">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="26" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="P8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="Q8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="23" t="s">
+      <c r="R8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="23" t="s">
+      <c r="S8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="23" t="s">
+      <c r="T8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="23" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -941,7 +956,7 @@
       <c r="F9" s="6">
         <v>6</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="13">
         <v>7</v>
       </c>
       <c r="H9" s="6">
@@ -980,71 +995,77 @@
       <c r="S9" s="6">
         <v>19</v>
       </c>
+      <c r="T9" s="6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="28" t="s">
+      <c r="I10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="P10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="Q10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="R10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="S10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="T10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="11" spans="1:19" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:20" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="8">
         <f>SUM(C10:C10)</f>
         <v>0</v>
@@ -1061,7 +1082,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1090,11 +1111,11 @@
         <v>0</v>
       </c>
       <c r="N11" s="8">
-        <f t="shared" ref="N11:S11" si="1">SUM(N10:N10)</f>
+        <f>SUM(N10:N10)</f>
         <v>0</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O11:T11" si="1">SUM(O10:O10)</f>
         <v>0</v>
       </c>
       <c r="P11" s="8">
@@ -1113,9 +1134,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N15" s="1" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1128,7 +1153,7 @@
     <mergeCell ref="D3:M3"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:S7"/>
+    <mergeCell ref="G7:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_TongHopToanVien_01.xlsx
+++ b/MedicalLink/Templates/BC_TongHopToanVien_01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>STT</t>
   </si>
@@ -122,9 +122,6 @@
     <t>&amp;=[DATA1].TAM_UNG</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].TIEN_TONG</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].MONEY_XETNGHIEM</t>
   </si>
   <si>
@@ -165,6 +162,15 @@
   </si>
   <si>
     <t>&amp;=[DATA1].MONEY_GIUONGYEUCAU</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_TONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vật tư thay thế</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_VTTHAYTHE</t>
   </si>
 </sst>
 </file>
@@ -463,6 +469,15 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -493,19 +508,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -795,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,138 +812,142 @@
     <col min="1" max="1" width="7.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.28515625" style="1" customWidth="1"/>
-    <col min="6" max="17" width="17" style="1" customWidth="1"/>
-    <col min="18" max="20" width="12" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="18" width="17" style="1" customWidth="1"/>
+    <col min="19" max="21" width="12" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="11"/>
     </row>
-    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="21" t="s">
+    <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="18" t="s">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:21" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="27" t="s">
+    <row r="8" spans="1:21" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="30" t="s">
+      <c r="T8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="30" t="s">
+      <c r="U8" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -998,8 +1008,11 @@
       <c r="T9" s="6">
         <v>20</v>
       </c>
+      <c r="U9" s="6">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1019,53 +1032,56 @@
         <v>31</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="10" t="s">
+      <c r="P10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="Q10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="R10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="T10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="U10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="T10" s="10" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="11" spans="1:20" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:21" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="8">
         <f>SUM(C10:C10)</f>
         <v>0</v>
@@ -1115,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" ref="O11:T11" si="1">SUM(O10:O10)</f>
+        <f t="shared" ref="O11:U11" si="1">SUM(O10:O10)</f>
         <v>0</v>
       </c>
       <c r="P11" s="8">
@@ -1127,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R11" si="2">SUM(R10:R10)</f>
         <v>0</v>
       </c>
       <c r="S11" s="8">
@@ -1138,8 +1154,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="U11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1173,7 @@
     <mergeCell ref="D3:M3"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="G7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_TongHopToanVien_01.xlsx
+++ b/MedicalLink/Templates/BC_TongHopToanVien_01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>STT</t>
   </si>
@@ -171,6 +171,24 @@
   </si>
   <si>
     <t>&amp;=[DATA1].MONEY_VTTHAYTHE</t>
+  </si>
+  <si>
+    <t>Nước sôi</t>
+  </si>
+  <si>
+    <t>Xuất ăn</t>
+  </si>
+  <si>
+    <t>Điện nước</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_NUOCSOI</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_XUATAN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_DIENNUOC</t>
   </si>
 </sst>
 </file>
@@ -428,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -445,9 +463,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -466,9 +481,6 @@
     <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -478,6 +490,15 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,6 +534,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -801,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,142 +836,154 @@
     <col min="1" max="1" width="7.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.28515625" style="1" customWidth="1"/>
-    <col min="6" max="18" width="17" style="1" customWidth="1"/>
-    <col min="19" max="21" width="12" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="21" width="17" style="1" customWidth="1"/>
+    <col min="22" max="24" width="12" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="11"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="24" t="s">
+    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="12"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:21" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="21" t="s">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:24" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
     </row>
-    <row r="8" spans="1:21" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="16" t="s">
+    <row r="8" spans="1:24" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="18" t="s">
+      <c r="Q8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="18" t="s">
+      <c r="R8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="S8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="W8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="18" t="s">
+      <c r="X8" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -966,7 +1002,7 @@
       <c r="F9" s="6">
         <v>6</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>7</v>
       </c>
       <c r="H9" s="6">
@@ -1011,155 +1047,185 @@
       <c r="U9" s="6">
         <v>21</v>
       </c>
+      <c r="V9" s="6">
+        <v>22</v>
+      </c>
+      <c r="W9" s="6">
+        <v>23</v>
+      </c>
+      <c r="X9" s="6">
+        <v>24</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="W10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="X10" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:24" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="8">
+      <c r="B11" s="21"/>
+      <c r="C11" s="19">
         <f>SUM(C10:C10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="19">
         <f t="shared" ref="D11:M11" si="0">SUM(D10:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="19">
         <f>SUM(N10:N10)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="8">
-        <f t="shared" ref="O11:U11" si="1">SUM(O10:O10)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
+      <c r="O11" s="19">
+        <f t="shared" ref="O11:X11" si="1">SUM(O10:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R11" s="8">
-        <f t="shared" ref="R11" si="2">SUM(R10:R10)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="8">
+      <c r="R11" s="19">
+        <f t="shared" ref="R11:T11" si="2">SUM(R10:R10)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="19">
+        <f>SUM(S10:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="19">
+        <f>SUM(U10:U10)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T11" s="8">
+      <c r="W11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U11" s="8">
+      <c r="X11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1173,7 +1239,7 @@
     <mergeCell ref="D3:M3"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:U7"/>
+    <mergeCell ref="G7:X7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_TongHopToanVien_01.xlsx
+++ b/MedicalLink/Templates/BC_TongHopToanVien_01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongNhat\Desktop\MedicalLink.git\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +29,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>TỔNG CỘNG</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].MONEY_DIENNUOC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -499,6 +499,9 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,9 +537,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,144 +843,144 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
-      <c r="D2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="D2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="D3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:24" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="A7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
     </row>
     <row r="8" spans="1:24" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="K8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="L8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="M8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="16" t="s">
+      <c r="P8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="Q8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="R8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="T8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="V8" s="16" t="s">
+      <c r="W8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="16" t="s">
+      <c r="X8" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="X8" s="16" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1059,83 +1059,83 @@
     </row>
     <row r="10" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="L10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="M10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="9" t="s">
+      <c r="P10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="Q10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="R10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="V10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="T10" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="V10" s="9" t="s">
+      <c r="W10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W10" s="9" t="s">
+      <c r="X10" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="21"/>
+      <c r="A11" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="22"/>
       <c r="C11" s="19">
         <f>SUM(C10:C10)</f>
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/MedicalLink/Templates/BC_TongHopToanVien_01.xlsx
+++ b/MedicalLink/Templates/BC_TongHopToanVien_01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>STT</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>&amp;=[DATA].TENBENHVIEN</t>
+  </si>
+  <si>
+    <t>PTTT yêu cầu</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_PTTTYEUCAU</t>
+  </si>
+  <si>
+    <t>Vật tư TT riêng</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_VATTU_TTRIENG</t>
   </si>
 </sst>
 </file>
@@ -825,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,17 +848,17 @@
     <col min="1" max="1" width="7.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.28515625" style="1" customWidth="1"/>
-    <col min="6" max="21" width="17" style="1" customWidth="1"/>
-    <col min="22" max="24" width="12" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="23" width="17" style="1" customWidth="1"/>
+    <col min="24" max="26" width="12" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="D2" s="25" t="s">
@@ -861,9 +873,10 @@
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
-      <c r="N2" s="10"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
@@ -876,10 +889,11 @@
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
-      <c r="N3" s="11"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:24" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:26" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>0</v>
       </c>
@@ -914,8 +928,10 @@
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
       <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
     </row>
-    <row r="8" spans="1:24" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="14" t="s">
@@ -944,302 +960,248 @@
         <v>15</v>
       </c>
       <c r="L8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="N8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="O8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="P8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="Q8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="R8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="S8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="S8" s="17" t="s">
+      <c r="U8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="T8" s="17" t="s">
+      <c r="V8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="U8" s="17" t="s">
+      <c r="W8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="V8" s="16" t="s">
+      <c r="X8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="W8" s="16" t="s">
+      <c r="Y8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="16" t="s">
+      <c r="Z8" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="W9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6">
-        <v>6</v>
-      </c>
-      <c r="G9" s="12">
-        <v>7</v>
-      </c>
-      <c r="H9" s="6">
-        <v>8</v>
-      </c>
-      <c r="I9" s="6">
-        <v>9</v>
-      </c>
-      <c r="J9" s="6">
-        <v>10</v>
-      </c>
-      <c r="K9" s="6">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6">
-        <v>12</v>
-      </c>
-      <c r="M9" s="6">
-        <v>13</v>
-      </c>
-      <c r="N9" s="6">
-        <v>14</v>
-      </c>
-      <c r="O9" s="6">
-        <v>15</v>
-      </c>
-      <c r="P9" s="6">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>17</v>
-      </c>
-      <c r="R9" s="6">
-        <v>18</v>
-      </c>
-      <c r="S9" s="6">
-        <v>19</v>
-      </c>
-      <c r="T9" s="6">
-        <v>20</v>
-      </c>
-      <c r="U9" s="6">
-        <v>21</v>
-      </c>
-      <c r="V9" s="6">
-        <v>22</v>
-      </c>
-      <c r="W9" s="6">
-        <v>23</v>
-      </c>
-      <c r="X9" s="6">
-        <v>24</v>
+      <c r="B10" s="22"/>
+      <c r="C10" s="19">
+        <f>SUM(C9:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="19">
+        <f t="shared" ref="D10:N10" si="0">SUM(D9:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
+        <f t="shared" ref="L10" si="1">SUM(L9:L9)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="19">
+        <f>SUM(O9:O9)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
+        <f t="shared" ref="P10:Z10" si="2">SUM(P9:P9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="19">
+        <f t="shared" ref="S10" si="3">SUM(S9:S9)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="19">
+        <f t="shared" ref="T10:V10" si="4">SUM(T9:T9)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="19">
+        <f>SUM(U9:U9)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="19">
+        <f>SUM(W9:W9)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="S10" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="T10" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="U10" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="W10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="19">
-        <f>SUM(C10:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="19">
-        <f t="shared" ref="D11:M11" si="0">SUM(D10:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="19">
-        <f>SUM(N10:N10)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="19">
-        <f t="shared" ref="O11:X11" si="1">SUM(O10:O10)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="19">
-        <f t="shared" ref="R11:T11" si="2">SUM(R10:R10)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="19">
-        <f>SUM(S10:S10)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="19">
-        <f>SUM(U10:U10)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O15" s="1" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="D2:N2"/>
+    <mergeCell ref="D3:N3"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:X7"/>
+    <mergeCell ref="G7:Z7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
